--- a/G16Data.xlsx
+++ b/G16Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aedue-my.sharepoint.com/personal/michele_cedolin_aum_edu_kw/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michele/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_859241BEC5462DF35DFC9890E2AC9AB40B9C5587" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07924AAD-FFFB-420A-AD3F-E0CF72BE100D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5675F1-B22A-4D41-8C48-2ECFF8646601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1530" windowWidth="16590" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>Dry natural gas consumption (bcf)</t>
   </si>
   <si>
-    <t xml:space="preserve">        Refined petroleum products (Mb/d)</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Refined petroleum products (Mb/d)</t>
   </si>
 </sst>
 </file>
@@ -408,22 +408,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -435,10 +435,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>29221</v>
       </c>
@@ -455,7 +455,7 @@
         <v>106.000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>29252</v>
       </c>
@@ -472,7 +472,7 @@
         <v>106.8333333341667</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>29281</v>
       </c>
@@ -489,7 +489,7 @@
         <v>107.6666666673333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>29312</v>
       </c>
@@ -506,7 +506,7 @@
         <v>108.50000000049999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>29342</v>
       </c>
@@ -523,7 +523,7 @@
         <v>109.3333333336667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>29373</v>
       </c>
@@ -540,7 +540,7 @@
         <v>110.16666666683329</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>29403</v>
       </c>
@@ -557,7 +557,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>29434</v>
       </c>
@@ -574,7 +574,7 @@
         <v>111.83333333316671</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>29465</v>
       </c>
@@ -591,7 +591,7 @@
         <v>112.6666666663333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>29495</v>
       </c>
@@ -608,7 +608,7 @@
         <v>113.49999999950001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>29526</v>
       </c>
@@ -625,7 +625,7 @@
         <v>114.3333333326667</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>29556</v>
       </c>
@@ -642,7 +642,7 @@
         <v>115.1666666658333</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>29587</v>
       </c>
@@ -659,7 +659,7 @@
         <v>115.999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>29618</v>
       </c>
@@ -676,7 +676,7 @@
         <v>116.1666666658333</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>29646</v>
       </c>
@@ -693,7 +693,7 @@
         <v>116.3333333326667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>29677</v>
       </c>
@@ -710,7 +710,7 @@
         <v>116.49999999950001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>29707</v>
       </c>
@@ -727,7 +727,7 @@
         <v>116.6666666663333</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29738</v>
       </c>
@@ -744,7 +744,7 @@
         <v>116.83333333316671</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>29768</v>
       </c>
@@ -761,7 +761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>29799</v>
       </c>
@@ -778,7 +778,7 @@
         <v>117.16666666683329</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>29830</v>
       </c>
@@ -795,7 +795,7 @@
         <v>117.3333333336667</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>29860</v>
       </c>
@@ -812,7 +812,7 @@
         <v>117.50000000049999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>29891</v>
       </c>
@@ -829,7 +829,7 @@
         <v>117.6666666673333</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>29921</v>
       </c>
@@ -846,7 +846,7 @@
         <v>117.8333333341667</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>29952</v>
       </c>
@@ -863,7 +863,7 @@
         <v>118.000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>29983</v>
       </c>
@@ -880,7 +880,7 @@
         <v>118.4166666676667</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>30011</v>
       </c>
@@ -897,7 +897,7 @@
         <v>118.8333333343333</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30042</v>
       </c>
@@ -914,7 +914,7 @@
         <v>119.250000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>30072</v>
       </c>
@@ -931,7 +931,7 @@
         <v>119.6666666676667</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30103</v>
       </c>
@@ -948,7 +948,7 @@
         <v>120.0833333343333</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30133</v>
       </c>
@@ -965,7 +965,7 @@
         <v>120.500000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30164</v>
       </c>
@@ -982,7 +982,7 @@
         <v>120.9166666676667</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30195</v>
       </c>
@@ -999,7 +999,7 @@
         <v>121.3333333343333</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>30225</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>121.750000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>30256</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>122.1666666676667</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>30286</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>122.5833333343333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>30317</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>123.000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>30348</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>122.750000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>30376</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>122.500000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>30407</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>122.250000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>30437</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>122.000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>30468</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>121.750000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>30498</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>121.500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>30529</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>121.250000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>30560</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>121.000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>30590</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>120.750000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>30621</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>120.500000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>30651</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>120.250000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>30682</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>120.000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>30713</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>120.08333333425</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>30742</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>120.1666666675</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>30773</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>120.25000000075001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>30803</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>120.333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>30834</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>120.41666666725</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>30864</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>120.50000000049999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>30895</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>120.58333333375001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>30926</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>120.666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>30956</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>120.75000000025</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>30987</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>120.83333333349999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>31017</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>120.91666666675</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>31048</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>31079</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>120.7833333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>31107</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>120.56666666666671</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>31138</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>120.35</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>31168</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>120.1333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>31199</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>119.9166666666667</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>31229</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>31260</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>119.48333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>31291</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>119.26666666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>31321</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>119.05</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>31352</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>118.8333333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>31382</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>118.6166666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>31413</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>31444</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>118.05833333333329</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>31472</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>117.7166666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>31503</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>117.375</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>31533</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>117.0333333333333</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>31564</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>116.69166666666671</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>31594</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>116.35</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>31625</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>116.0083333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>31656</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>115.6666666666667</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>31686</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>115.325</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>31717</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>114.98333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>31747</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>114.64166666666669</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>31778</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>31809</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>114.8416666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>31837</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>115.3833333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>31868</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>115.925</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>31898</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>116.4666666666667</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>31929</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>117.0083333333333</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>31959</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>117.55</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>31990</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>118.0916666666667</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>32021</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>118.6333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>32051</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>119.175</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>32082</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>119.7166666666667</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>32112</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>120.2583333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>32143</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>32174</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>121.0833333333333</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>32203</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>121.3666666666667</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>32234</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>121.65</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>32264</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>121.93333333333329</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>32295</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>122.2166666666667</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>32325</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>32356</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>122.7833333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>32387</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>123.06666666666671</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>32417</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>123.35</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>32448</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>123.6333333333333</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>32478</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>123.9166666666667</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>32509</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>32540</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>120.95</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>32568</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>117.7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>32599</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>114.45</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>32629</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>32660</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>107.95</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>32690</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>32721</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>101.45</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>32752</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>32782</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>94.95</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>32813</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>32843</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>88.45</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>32874</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>32905</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>32933</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>32964</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>32994</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>33025</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>33055</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>33086</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>33117</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>33147</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>33178</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>33208</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>33239</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>33270</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>96.941666666666663</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>33298</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>99.083333333333329</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>33329</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>101.22499999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>33359</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>103.3666666666667</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>33390</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>105.5083333333333</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>33420</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>107.65</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>33451</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>109.7916666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>33482</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>111.93333333333329</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>33512</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>114.075</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>33543</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>116.2166666666667</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>33573</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>118.35833333333331</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>33604</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>33635</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>121.3333333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>33664</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>122.1666666666667</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>33695</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>33725</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>123.8333333333333</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>33756</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>124.6666666666667</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>33786</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>33817</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>126.3333333333333</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>33848</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>127.1666666666667</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>33878</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>33909</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>128.83333333333329</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>33939</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>129.66666666666671</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>33970</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>34001</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>133.44999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>34029</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>34060</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>139.35</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>34090</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>34121</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>145.25</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>34151</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>34182</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>151.15</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>34213</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>34243</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>157.05000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>34274</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>34304</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>162.94999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>34335</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>34366</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>166.47499999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>34394</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>167.05</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>34425</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>167.625</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>34455</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>168.2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>34486</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>168.77500000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>34516</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>169.35</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>34547</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>169.92500000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>34578</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>34608</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>171.07499999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>34639</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>171.65</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>34669</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>172.22499999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>34700</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>34731</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>174.13333333333341</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>34759</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>175.4666666666667</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>34790</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>34820</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>178.13333333333341</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>34851</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>179.4666666666667</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>34881</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>180.8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>34912</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>182.13333333333341</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>34943</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>183.4666666666667</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>34973</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>184.8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>35004</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>186.13333333333341</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>35034</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>187.4666666666667</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>35065</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>35096</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>35125</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>192.8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>35156</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>194.8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>35186</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>35217</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>198.8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>35247</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>200.8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>35278</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>35309</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>204.8</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>35339</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>206.8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>35370</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>208.8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>35400</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>210.8</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>35431</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>212.8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>35462</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>214.93333333333331</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>35490</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>217.06666666666669</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>35521</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>219.2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>35551</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>221.33333333333329</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>35582</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>223.4666666666667</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>35612</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>225.6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>35643</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>227.73333333333329</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>35674</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>229.8666666666667</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>35704</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>35735</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>234.1333333333333</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>35765</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>236.26666666666671</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>35796</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>238.4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>35827</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>242.3416666666667</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>35855</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>246.2833333333333</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>35886</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>250.22499999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>35916</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>254.16666666666671</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>35947</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>258.10833333333329</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>35977</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>262.05</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>36008</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>265.99166666666667</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>36039</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>269.93333333333328</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>36069</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>273.875</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>36100</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>277.81666666666672</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>36130</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>281.75833333333333</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>36161</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>285.7</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>36192</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>280.06414845173038</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>36220</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>274.42829690346082</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>36251</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>268.79244535519132</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>36281</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>263.15659380692159</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>36312</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>257.52074225865209</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>36342</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>251.88489071038251</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>36373</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>246.24903916211289</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>36404</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>240.61318761384331</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>36434</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>234.97733606557381</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>36465</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>229.3414845173042</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>36495</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>223.70563296903461</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>36526</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>218.069781420765</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>36557</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>220.33810100556431</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>36586</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>222.60642059036351</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>36617</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>224.87474017516271</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>36647</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>227.143059759962</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>36678</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>229.41137934476129</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>36708</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>231.67969892956049</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>36739</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>233.94801851435969</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>36770</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>236.216338099159</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>36800</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>238.48465768395829</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>36831</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>240.75297726875749</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>36861</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>243.02129685355669</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>36892</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>245.28961643835601</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>36923</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>247.87410045662091</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>36951</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>250.4585844748857</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>36982</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>253.04306849315051</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>37012</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>255.6275525114153</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>37043</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>258.21203652968018</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>37073</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>260.79652054794502</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>37104</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>263.38100456620981</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>37135</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>265.96548858447471</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>37165</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>268.5499726027395</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>37196</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>271.13445662100429</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>37226</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>273.71894063926908</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>37257</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>276.30342465753398</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>37288</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>277.54057077625549</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>37316</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>278.777716894977</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>37347</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>280.01486301369852</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>37377</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>281.25200913242003</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>37408</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>282.48915525114148</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>37438</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>283.72630136986299</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>37469</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>284.96344748858451</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>37500</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>286.20059360730602</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>37530</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>287.43773972602747</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>37561</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>288.67488584474899</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>37591</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>289.9120319634705</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>37622</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>291.14917808219201</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>37653</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>291.69628892506938</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>37681</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>292.24339976794681</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>37712</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>292.79051061082419</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>37742</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>293.33762145370167</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>37773</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>293.8847322965791</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>37803</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>294.43184313945648</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>37834</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>294.97895398233391</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>37865</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>295.52606482521128</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>37895</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>296.07317566808882</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>37926</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>296.62028651096608</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>37956</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>297.16739735384363</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>37987</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>297.714508196721</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>38018</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>300.58364392918588</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>38047</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>303.45277966165082</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>38078</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>306.32191539411582</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>38108</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>309.19105112658059</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>38139</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>312.06018685904559</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>38169</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>314.92932259151053</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>38200</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>317.79845832397541</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>38231</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>320.66759405644041</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>38261</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>323.53672978890518</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>38292</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>326.40586552137017</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>38322</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>329.27500125383511</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>38353</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>332.1441369863</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>38384</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>331.55884703196222</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>38412</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>330.97355707762432</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>38443</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>330.38826712328648</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>38473</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>329.80297716894859</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>38504</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>329.21768721461081</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>38534</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>328.63239726027302</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>38565</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>328.04710730593519</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>38596</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>327.46181735159729</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>38626</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>326.87652739725951</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>38657</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>326.29123744292173</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>38687</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>325.70594748858377</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>38718</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>325.12065753424599</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>38749</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>328.54849735159758</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>38777</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>331.97633716894921</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>38808</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>335.40417698630068</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>38838</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>338.83201680365232</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>38869</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>342.25985662100391</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>38899</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>345.68769643835549</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>38930</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>349.11553625570713</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>38961</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>352.54337607305871</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>38991</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>355.97121589041018</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>39022</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>359.39905570776182</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>39052</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>362.8268955251134</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>39083</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>366.25473534246498</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>39114</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>368.71609733350732</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>39142</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>371.17745932454949</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>39173</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>373.63882131559171</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>39203</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>376.10018330663399</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>39234</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>378.56154529767628</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>39264</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>381.0229072887185</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>39295</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>383.48426927976072</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>39326</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>385.94563127080301</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>39356</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>388.40699326184529</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>39387</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>390.86835525288751</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>39417</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>393.32971724392968</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>39448</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>395.79107923497202</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>39479</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>406.39259902680652</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>39508</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>416.99411881864103</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>39539</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>427.59563861047548</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>39569</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>438.19715840230998</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>39600</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>448.79867819414449</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>39630</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>459.40019798597899</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>39661</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>470.0017177778135</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>39692</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>480.60323756964789</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>39722</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>491.20475736148251</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>39753</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>501.80627715331701</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>39783</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>512.4077969451514</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>39814</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>523.00931673698597</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>39845</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>519.09643009223714</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>39873</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>515.18354344748832</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>39904</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>511.2706568027395</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>39934</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>507.35777015799073</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>39965</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>503.44488351324179</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>39995</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>499.53199686849302</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>40026</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>495.61911022374409</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>40057</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>491.70622357899532</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>40087</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>487.7933369342465</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>40118</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>483.88045028949767</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>40148</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>479.96756364474891</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>40179</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>476.05467700000003</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>40210</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>474.43647175000001</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>40238</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>472.81826649999999</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>40269</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>471.20006124999998</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>40299</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>469.58185600000002</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>40330</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>467.96365075</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>40360</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>466.34544549999998</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>40391</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>464.72724025000002</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>40422</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>463.10903500000001</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>40452</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>461.49082974999999</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>40483</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>459.87262449999997</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>40513</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>458.25441925000001</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>40544</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>456.636214</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>40575</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>457.21655566666658</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>40603</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>457.79689733333328</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>40634</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>458.37723899999997</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>40664</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>458.95758066666667</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>40695</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>459.53792233333331</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>40725</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>460.11826400000001</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>40756</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>460.69860566666671</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>40787</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>461.27894733333329</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>40817</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>461.85928899999999</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>40848</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>462.43963066666669</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>40878</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>463.01997233333338</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>40909</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>463.60031400000003</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>40940</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>465.00414066666667</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>40969</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>466.40796733333337</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>41000</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>467.81179400000002</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>41030</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>469.21562066666672</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>41061</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>470.61944733333343</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>41091</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>472.02327400000001</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>41122</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>473.42710066666672</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>41153</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>474.83092733333342</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>41183</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>476.23475400000001</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>41214</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>477.63858066666671</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>41244</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>479.04240733333341</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>41275</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>480.446234</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>41306</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>477.99238116666669</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>41334</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>475.53852833333332</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>41365</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>473.0846755</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>41395</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>470.63082266666669</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>41426</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>468.17696983333332</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>41456</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>465.723117</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>41487</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>463.26926416666669</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>41518</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>460.81541133333332</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>41548</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>458.3615585</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>41579</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>455.90770566666669</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>41609</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>453.45385283333331</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>41640</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>41671</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>41699</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>41730</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>41760</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>41791</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>41821</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>41852</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>41883</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>41913</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>41944</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>41974</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>42005</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>42036</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>449.83333333333331</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>42064</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>448.66666666666669</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>42095</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>447.5</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>42125</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>446.33333333333331</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>42156</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>445.16666666666669</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>42186</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>42217</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>442.83333333333331</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>42248</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>441.66666666666669</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>42278</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>42309</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>439.33333333333331</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>42339</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>438.16666666666669</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>42370</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>42401</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>435.25948173515968</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>42430</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>433.51896347031948</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>42461</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>431.77844520547922</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>42491</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>430.03792694063901</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>42522</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>428.29740867579869</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>42552</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>426.55689041095849</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>42583</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>424.81637214611823</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>42614</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>423.07585388127802</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>42644</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>421.33533561643782</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>42675</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>419.5948173515975</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>42705</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>417.85429908675718</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>42736</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>416.11378082191698</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>42767</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>416.77110273972522</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>42795</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>417.42842465753353</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>42826</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>418.08574657534172</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>42856</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>418.74306849315002</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>42887</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>419.40039041095821</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>42917</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>420.05771232876651</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>42948</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>420.71503424657482</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>42979</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>421.37235616438301</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>43009</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>422.02967808219131</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>43040</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>422.6869999999995</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>43070</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>423.34432191780769</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>43101</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>424.00164383561599</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>43132</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>417.16937442922341</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>43160</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>410.33710502283071</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>43191</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>403.50483561643802</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>43221</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>396.67256621004532</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>43252</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>389.84029680365268</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>43282</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>383.00802739725998</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>43313</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>376.17575799086728</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>43344</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>369.3434885844747</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>43374</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>362.511219178082</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>43405</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>355.67894977168942</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>43435</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>348.84668036529672</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>43466</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>342.01441095890402</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>43497</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>337.36224481760371</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>43525</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>332.71007867630328</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>43556</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>328.05791253500303</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>43586</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>323.40574639370271</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>43617</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>318.75358025240229</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>43647</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>314.10141411110197</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>43678</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>309.44924796980172</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>43709</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>304.79708182850129</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>43739</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>300.14491568720098</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>43770</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>295.49274954590072</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>43800</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>290.84058340460041</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>43831</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>286.18841726329998</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>43862</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>291.18732270229361</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>43891</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>296.18622814128707</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>43922</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>301.18513358028082</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>43952</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>306.18403901927428</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>43983</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>311.18294445826791</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>44013</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>316.18184989726149</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>44044</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>321.18075533625512</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>44075</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>326.17966077524858</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>44105</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>331.17856621424221</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>44136</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>336.17747165323578</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>44166</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>341.17637709222942</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>44197</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>346.17528253122299</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>44228</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>348.34624390028011</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>44256</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>350.51720526933718</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>44287</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>352.68816663839431</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>44317</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>354.85912800745132</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>44348</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>357.03008937650839</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>44378</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>359.20105074556551</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>44409</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>361.37201211462258</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>44440</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>363.54297348367959</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>44470</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>365.71393485273671</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>44501</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>367.88489622179378</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>44531</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>370.05585759085091</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>44562</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>44593</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>44621</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>44652</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>44682</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>44713</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>44743</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>44774</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>44805</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>44835</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>44866</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>372.22681895990797</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>44896</v>
       </c>
